--- a/deliverable3/burndown_chart/Burndown_Chart_Sprint3.xlsx
+++ b/deliverable3/burndown_chart/Burndown_Chart_Sprint3.xlsx
@@ -271,19 +271,19 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>20.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>16.666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>12.499999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>8.3333333333333215</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>4.1666666666666501</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -382,10 +382,10 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1261,7 +1261,7 @@
         <v>42675</v>
       </c>
       <c r="B3" s="3">
-        <v>25</v>
+        <v>20.833333333333329</v>
       </c>
       <c r="C3" s="5">
         <v>25</v>
@@ -1272,7 +1272,7 @@
         <v>42676</v>
       </c>
       <c r="B4" s="3">
-        <v>25</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="C4" s="3">
         <v>23</v>
@@ -1283,7 +1283,7 @@
         <v>42677</v>
       </c>
       <c r="B5" s="3">
-        <v>25</v>
+        <v>12.499999999999991</v>
       </c>
       <c r="C5" s="5">
         <v>23</v>
@@ -1294,7 +1294,7 @@
         <v>42678</v>
       </c>
       <c r="B6" s="3">
-        <v>25</v>
+        <v>8.3333333333333215</v>
       </c>
       <c r="C6" s="3">
         <v>23</v>
@@ -1305,10 +1305,10 @@
         <v>42679</v>
       </c>
       <c r="B7" s="3">
-        <v>25</v>
+        <v>4.1666666666666501</v>
       </c>
       <c r="C7" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1319,11 +1319,12 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/deliverable3/burndown_chart/Burndown_Chart_Sprint3.xlsx
+++ b/deliverable3/burndown_chart/Burndown_Chart_Sprint3.xlsx
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/deliverable3/burndown_chart/Burndown_Chart_Sprint3.xlsx
+++ b/deliverable3/burndown_chart/Burndown_Chart_Sprint3.xlsx
@@ -110,13 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,7 +285,7 @@
                   <c:v>4.1666666666666501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1.7763568394002505E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,19 +372,19 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,7 +455,7 @@
         <c:axId val="2123971736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="96"/>
+          <c:max val="35"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1226,7 +1225,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,7 +1262,7 @@
       <c r="B3" s="3">
         <v>20.833333333333329</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>25</v>
       </c>
     </row>
@@ -1275,7 +1274,7 @@
         <v>16.666666666666661</v>
       </c>
       <c r="C4" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1285,8 +1284,8 @@
       <c r="B5" s="3">
         <v>12.499999999999991</v>
       </c>
-      <c r="C5" s="5">
-        <v>23</v>
+      <c r="C5" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1297,7 +1296,7 @@
         <v>8.3333333333333215</v>
       </c>
       <c r="C6" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1307,8 +1306,8 @@
       <c r="B7" s="3">
         <v>4.1666666666666501</v>
       </c>
-      <c r="C7" s="5">
-        <v>17</v>
+      <c r="C7" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1316,10 +1315,10 @@
         <v>42680</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>-1.7763568394002505E-14</v>
       </c>
       <c r="C8" s="3">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
